--- a/数据库简单设计.xlsx
+++ b/数据库简单设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68786EF-5383-402C-A09B-E828A45EF834}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75B280-754A-4691-B829-BC541D2EBC35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>Things</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>not null default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -768,21 +780,21 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -791,17 +803,31 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>12</v>
       </c>
     </row>
